--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T14:25:39+00:00</t>
+    <t>2025-08-18T14:43:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-18T14:43:32+00:00</t>
+    <t>2025-08-19T08:24:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T08:24:40+00:00</t>
+    <t>2025-08-21T08:22:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-21T08:22:26+00:00</t>
+    <t>2025-08-22T13:34:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-22T13:34:08+00:00</t>
+    <t>2025-08-22T13:38:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T07:57:25+00:00</t>
+    <t>2025-09-16T06:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T06:50:02+00:00</t>
+    <t>2025-09-16T07:54:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/346-flux---gestion-des-ids/ig/all-profiles.xlsx
+++ b/346-flux---gestion-des-ids/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T07:54:55+00:00</t>
+    <t>2025-09-16T13:04:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
